--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 5 (0, 30, 46, 17, 23)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 5 (0, 30, 46, 17, 23)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -453,13 +453,13 @@
         <v>100</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.6458199889514928</v>
+        <v>0.06380320388317115</v>
       </c>
       <c r="E2">
-        <v>0.6458199889514928</v>
+        <v>0.06380320388317115</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.0189749440573384</v>
+        <v>0.2543534156797227</v>
       </c>
       <c r="E4">
-        <v>0.0189749440573384</v>
+        <v>0.2543534156797227</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>3.43399104025619E-143</v>
+        <v>2.107138718443732E-101</v>
       </c>
       <c r="E5">
-        <v>3.43399104025619E-143</v>
+        <v>2.107138718443732E-101</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.2087512307983525</v>
+        <v>0.0004047330648454061</v>
       </c>
       <c r="E6">
-        <v>0.2087512307983525</v>
+        <v>0.0004047330648454061</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.9999999999999973</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2.664535259100376E-15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.000925174220572E-21</v>
+        <v>2.142946429496777E-16</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.003083555803972582</v>
+        <v>0.06891186566726608</v>
       </c>
       <c r="E11">
-        <v>0.9969164441960274</v>
+        <v>0.931088134332734</v>
       </c>
       <c r="F11">
-        <v>145.3521881103516</v>
+        <v>183.2982330322266</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
